--- a/策略研究/☆不同买入信号回测比较.xlsx
+++ b/策略研究/☆不同买入信号回测比较.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujian/woojean/ThinkingInTrade/策略研究/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujian/woojean/StockParser/策略研究/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="88">
   <si>
     <t>开始日期</t>
   </si>
@@ -2490,6 +2490,111 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>zhi'sun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年1月至8月，全量，2日止损</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、10、20、60、250均线多头排列</t>
+    <rPh sb="14" eb="15">
+      <t>jun'xian</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>duo'to</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>pai'l</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、10、20、60、250均线今日多头排列，但前一日非多头排列</t>
+    <rPh sb="14" eb="15">
+      <t>jun'xian</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>jin'r</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>duo'to</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>pai'l</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>dan</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>qian'yi'ri</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>fei</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>duo'tou</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>pai'l</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月线上穿季线</t>
+    <rPh sb="0" eb="1">
+      <t>yue'xian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shang'chuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'xian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年1月至8月，全量，持有10日</t>
+    <rPh sb="14" eb="15">
+      <t>chi'you</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ri</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台突破，左区间最少10天，右区间最少10天</t>
+    <rPh sb="0" eb="1">
+      <t>ping't</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tu'p</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qu'jian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zui'shao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>tian</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>you</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>qu'jian</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zui's</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>tian</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3140,7 +3245,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3152,8 +3257,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3630,6 +3737,9 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3654,22 +3764,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3944,16 +4057,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O86"/>
+  <dimension ref="A1:O92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="43.5" style="18" customWidth="1"/>
+    <col min="2" max="2" width="108.83203125" style="18" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" style="12" customWidth="1"/>
     <col min="4" max="4" width="13" style="12" customWidth="1"/>
     <col min="5" max="7" width="10.83203125" style="12"/>
@@ -4009,7 +4122,7 @@
       <c r="O1" s="18"/>
     </row>
     <row r="2" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="179" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -4053,7 +4166,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="178"/>
+      <c r="A3" s="179"/>
       <c r="B3" s="24" t="s">
         <v>30</v>
       </c>
@@ -4095,7 +4208,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="178"/>
+      <c r="A4" s="179"/>
       <c r="B4" s="24" t="s">
         <v>29</v>
       </c>
@@ -4137,7 +4250,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="178"/>
+      <c r="A5" s="179"/>
       <c r="B5" s="24" t="s">
         <v>32</v>
       </c>
@@ -4179,7 +4292,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="178"/>
+      <c r="A6" s="179"/>
       <c r="B6" s="24" t="s">
         <v>17</v>
       </c>
@@ -4221,7 +4334,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="178"/>
+      <c r="A7" s="179"/>
       <c r="B7" s="24" t="s">
         <v>22</v>
       </c>
@@ -4263,7 +4376,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="178"/>
+      <c r="A8" s="179"/>
       <c r="B8" s="24" t="s">
         <v>21</v>
       </c>
@@ -4305,7 +4418,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="178"/>
+      <c r="A9" s="179"/>
       <c r="B9" s="24" t="s">
         <v>25</v>
       </c>
@@ -4347,7 +4460,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="178"/>
+      <c r="A10" s="179"/>
       <c r="B10" s="24" t="s">
         <v>12</v>
       </c>
@@ -4389,7 +4502,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="178"/>
+      <c r="A11" s="179"/>
       <c r="B11" s="24" t="s">
         <v>15</v>
       </c>
@@ -4431,7 +4544,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="178"/>
+      <c r="A12" s="179"/>
       <c r="B12" s="24" t="s">
         <v>24</v>
       </c>
@@ -4473,7 +4586,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="178"/>
+      <c r="A13" s="179"/>
       <c r="B13" s="24" t="s">
         <v>19</v>
       </c>
@@ -4515,7 +4628,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="178"/>
+      <c r="A14" s="179"/>
       <c r="B14" s="24" t="s">
         <v>18</v>
       </c>
@@ -4557,7 +4670,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="178"/>
+      <c r="A15" s="179"/>
       <c r="B15" s="24" t="s">
         <v>26</v>
       </c>
@@ -4599,7 +4712,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="178"/>
+      <c r="A16" s="179"/>
       <c r="B16" s="24" t="s">
         <v>16</v>
       </c>
@@ -4641,7 +4754,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="178"/>
+      <c r="A17" s="179"/>
       <c r="B17" s="24" t="s">
         <v>23</v>
       </c>
@@ -4683,7 +4796,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="178"/>
+      <c r="A18" s="179"/>
       <c r="B18" s="24" t="s">
         <v>14</v>
       </c>
@@ -4725,7 +4838,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A19" s="178"/>
+      <c r="A19" s="179"/>
       <c r="B19" s="24" t="s">
         <v>28</v>
       </c>
@@ -4768,7 +4881,7 @@
       <c r="O19" s="33"/>
     </row>
     <row r="20" spans="1:15" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A20" s="178"/>
+      <c r="A20" s="179"/>
       <c r="B20" s="24" t="s">
         <v>20</v>
       </c>
@@ -4811,7 +4924,7 @@
       <c r="O20" s="34"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="178"/>
+      <c r="A21" s="179"/>
       <c r="B21" s="24" t="s">
         <v>27</v>
       </c>
@@ -4868,7 +4981,7 @@
       <c r="N22" s="38"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="178" t="s">
+      <c r="A23" s="179" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="39" t="s">
@@ -4912,7 +5025,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="178"/>
+      <c r="A24" s="179"/>
       <c r="B24" s="24" t="s">
         <v>31</v>
       </c>
@@ -4954,7 +5067,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="178"/>
+      <c r="A25" s="179"/>
       <c r="B25" s="24" t="s">
         <v>13</v>
       </c>
@@ -4996,7 +5109,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="178"/>
+      <c r="A26" s="179"/>
       <c r="B26" s="24" t="s">
         <v>32</v>
       </c>
@@ -5055,7 +5168,7 @@
       <c r="O28" s="49"/>
     </row>
     <row r="29" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="178" t="s">
+      <c r="A29" s="179" t="s">
         <v>34</v>
       </c>
       <c r="B29" s="52" t="s">
@@ -5099,7 +5212,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="178"/>
+      <c r="A30" s="179"/>
       <c r="B30" s="56" t="s">
         <v>32</v>
       </c>
@@ -5141,7 +5254,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="178"/>
+      <c r="A31" s="179"/>
       <c r="B31" s="60" t="s">
         <v>31</v>
       </c>
@@ -5183,7 +5296,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A32" s="178"/>
+      <c r="A32" s="179"/>
       <c r="B32" s="56" t="s">
         <v>35</v>
       </c>
@@ -5225,13 +5338,13 @@
       </c>
     </row>
     <row r="33" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A33" s="178"/>
+      <c r="A33" s="179"/>
       <c r="B33" s="68" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="179" t="s">
+      <c r="A35" s="180" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="70" t="s">
@@ -5275,7 +5388,7 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="179"/>
+      <c r="A36" s="180"/>
       <c r="B36" s="56" t="s">
         <v>32</v>
       </c>
@@ -5317,7 +5430,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="179"/>
+      <c r="A37" s="180"/>
       <c r="B37" s="72" t="s">
         <v>31</v>
       </c>
@@ -5359,7 +5472,7 @@
       </c>
     </row>
     <row r="38" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A38" s="179"/>
+      <c r="A38" s="180"/>
       <c r="B38" s="56" t="s">
         <v>35</v>
       </c>
@@ -5624,7 +5737,7 @@
       <c r="O48" s="89"/>
     </row>
     <row r="49" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="183" t="s">
+      <c r="A49" s="184" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="18" t="s">
@@ -5668,13 +5781,13 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A50" s="183"/>
+      <c r="A50" s="184"/>
       <c r="B50" s="18" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="100" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="182" t="s">
+      <c r="A52" s="183" t="s">
         <v>47</v>
       </c>
       <c r="B52" s="105" t="s">
@@ -5719,7 +5832,7 @@
       <c r="O52" s="99"/>
     </row>
     <row r="53" spans="1:15" s="98" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="182"/>
+      <c r="A53" s="183"/>
       <c r="B53" s="105" t="s">
         <v>45</v>
       </c>
@@ -5762,7 +5875,7 @@
       <c r="O53" s="97"/>
     </row>
     <row r="54" spans="1:15" s="98" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="182"/>
+      <c r="A54" s="183"/>
       <c r="B54" s="105" t="s">
         <v>46</v>
       </c>
@@ -5805,7 +5918,7 @@
       <c r="O54" s="97"/>
     </row>
     <row r="55" spans="1:15" s="102" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="182"/>
+      <c r="A55" s="183"/>
       <c r="B55" s="110" t="s">
         <v>48</v>
       </c>
@@ -5850,7 +5963,7 @@
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A56" s="181" t="s">
+      <c r="A56" s="182" t="s">
         <v>57</v>
       </c>
       <c r="B56" s="110" t="s">
@@ -5894,7 +6007,7 @@
       </c>
     </row>
     <row r="57" spans="1:15" s="11" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="178"/>
+      <c r="A57" s="179"/>
       <c r="B57" s="132" t="s">
         <v>54</v>
       </c>
@@ -5937,7 +6050,7 @@
       <c r="O57" s="89"/>
     </row>
     <row r="58" spans="1:15" s="123" customFormat="1" ht="50" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="178"/>
+      <c r="A58" s="179"/>
       <c r="B58" s="128" t="s">
         <v>55</v>
       </c>
@@ -5980,7 +6093,7 @@
       <c r="O58" s="116"/>
     </row>
     <row r="59" spans="1:15" s="2" customFormat="1" ht="50" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="178"/>
+      <c r="A59" s="179"/>
       <c r="B59" s="137" t="s">
         <v>59</v>
       </c>
@@ -6023,7 +6136,7 @@
       <c r="O59" s="33"/>
     </row>
     <row r="60" spans="1:15" s="2" customFormat="1" ht="66" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="178"/>
+      <c r="A60" s="179"/>
       <c r="B60" s="128" t="s">
         <v>60</v>
       </c>
@@ -6066,7 +6179,7 @@
       <c r="O60" s="33"/>
     </row>
     <row r="61" spans="1:15" ht="66" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="178"/>
+      <c r="A61" s="179"/>
       <c r="B61" s="128" t="s">
         <v>61</v>
       </c>
@@ -6108,7 +6221,7 @@
       </c>
     </row>
     <row r="62" spans="1:15" ht="66" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="178"/>
+      <c r="A62" s="179"/>
       <c r="B62" s="126" t="s">
         <v>62</v>
       </c>
@@ -6150,7 +6263,7 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="66" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="178"/>
+      <c r="A63" s="179"/>
       <c r="B63" s="126" t="s">
         <v>63</v>
       </c>
@@ -6192,7 +6305,7 @@
       </c>
     </row>
     <row r="64" spans="1:15" ht="66" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="178"/>
+      <c r="A64" s="179"/>
       <c r="B64" s="126" t="s">
         <v>66</v>
       </c>
@@ -6234,7 +6347,7 @@
       </c>
     </row>
     <row r="65" spans="1:15" ht="82" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="178"/>
+      <c r="A65" s="179"/>
       <c r="B65" s="128" t="s">
         <v>64</v>
       </c>
@@ -6276,7 +6389,7 @@
       </c>
     </row>
     <row r="66" spans="1:15" ht="98" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="178"/>
+      <c r="A66" s="179"/>
       <c r="B66" s="117" t="s">
         <v>65</v>
       </c>
@@ -6370,7 +6483,7 @@
       <c r="N69" s="104"/>
     </row>
     <row r="70" spans="1:15" s="161" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="176" t="s">
+      <c r="A70" s="177" t="s">
         <v>56</v>
       </c>
       <c r="B70" s="156" t="s">
@@ -6415,7 +6528,7 @@
       <c r="O70" s="156"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A71" s="177"/>
+      <c r="A71" s="178"/>
       <c r="B71" s="18" t="s">
         <v>58</v>
       </c>
@@ -6457,7 +6570,7 @@
       </c>
     </row>
     <row r="72" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="180"/>
+      <c r="A72" s="181"/>
       <c r="B72" s="33" t="s">
         <v>58</v>
       </c>
@@ -6534,10 +6647,10 @@
       <c r="O74" s="125"/>
     </row>
     <row r="76" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="176" t="s">
+      <c r="A76" s="177" t="s">
         <v>67</v>
       </c>
-      <c r="B76" s="184" t="s">
+      <c r="B76" s="176" t="s">
         <v>12</v>
       </c>
       <c r="C76" s="138">
@@ -6578,7 +6691,7 @@
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A77" s="177"/>
+      <c r="A77" s="178"/>
       <c r="B77" s="18" t="s">
         <v>68</v>
       </c>
@@ -6620,7 +6733,7 @@
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A78" s="177"/>
+      <c r="A78" s="178"/>
       <c r="B78" s="18" t="s">
         <v>70</v>
       </c>
@@ -6662,7 +6775,7 @@
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A79" s="177"/>
+      <c r="A79" s="178"/>
       <c r="B79" s="18" t="s">
         <v>69</v>
       </c>
@@ -6704,7 +6817,7 @@
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A80" s="177"/>
+      <c r="A80" s="178"/>
       <c r="B80" s="18" t="s">
         <v>71</v>
       </c>
@@ -6746,7 +6859,7 @@
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A81" s="177"/>
+      <c r="A81" s="178"/>
       <c r="B81" s="18" t="s">
         <v>72</v>
       </c>
@@ -6832,7 +6945,7 @@
       </c>
     </row>
     <row r="83" spans="1:15" ht="304" x14ac:dyDescent="0.2">
-      <c r="A83" s="176" t="s">
+      <c r="A83" s="177" t="s">
         <v>75</v>
       </c>
       <c r="B83" s="3" t="s">
@@ -6879,7 +6992,7 @@
       </c>
     </row>
     <row r="84" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A84" s="177"/>
+      <c r="A84" s="178"/>
       <c r="B84" s="174" t="s">
         <v>78</v>
       </c>
@@ -6921,7 +7034,7 @@
       </c>
     </row>
     <row r="85" spans="1:15" ht="64" x14ac:dyDescent="0.2">
-      <c r="A85" s="177"/>
+      <c r="A85" s="178"/>
       <c r="B85" s="174" t="s">
         <v>79</v>
       </c>
@@ -7004,13 +7117,249 @@
       </c>
       <c r="N86" s="79">
         <v>7.8399999999999997E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="185" t="s">
+        <v>82</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" s="4">
+        <v>43102</v>
+      </c>
+      <c r="D87" s="4">
+        <v>43343</v>
+      </c>
+      <c r="E87" s="5">
+        <v>164</v>
+      </c>
+      <c r="F87" s="5">
+        <v>10729</v>
+      </c>
+      <c r="G87" s="5">
+        <v>65</v>
+      </c>
+      <c r="H87" s="5">
+        <v>2899</v>
+      </c>
+      <c r="I87" s="5">
+        <v>7830</v>
+      </c>
+      <c r="J87" s="6">
+        <v>0.2702</v>
+      </c>
+      <c r="K87" s="6">
+        <v>4.793E-2</v>
+      </c>
+      <c r="L87" s="6">
+        <v>-2.52E-2</v>
+      </c>
+      <c r="M87" s="6">
+        <v>-3.7699999999999999E-3</v>
+      </c>
+      <c r="N87" s="6">
+        <v>-5.4400000000000004E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A88" s="185"/>
+      <c r="B88" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C88" s="4">
+        <v>43102</v>
+      </c>
+      <c r="D88" s="4">
+        <v>43343</v>
+      </c>
+      <c r="E88" s="5">
+        <v>164</v>
+      </c>
+      <c r="F88" s="5">
+        <v>1454</v>
+      </c>
+      <c r="G88" s="5">
+        <v>8</v>
+      </c>
+      <c r="H88" s="5">
+        <v>401</v>
+      </c>
+      <c r="I88" s="5">
+        <v>1053</v>
+      </c>
+      <c r="J88" s="6">
+        <v>0.27578999999999998</v>
+      </c>
+      <c r="K88" s="6">
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="L88" s="6">
+        <v>-2.5590000000000002E-2</v>
+      </c>
+      <c r="M88" s="6">
+        <v>-4.4400000000000004E-3</v>
+      </c>
+      <c r="N88" s="6">
+        <v>-5.6600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="185" t="s">
+        <v>86</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C89" s="4">
+        <v>43102</v>
+      </c>
+      <c r="D89" s="4">
+        <v>43343</v>
+      </c>
+      <c r="E89" s="5">
+        <v>164</v>
+      </c>
+      <c r="F89" s="5">
+        <v>1445</v>
+      </c>
+      <c r="G89" s="5">
+        <v>8</v>
+      </c>
+      <c r="H89" s="5">
+        <v>592</v>
+      </c>
+      <c r="I89" s="5">
+        <v>853</v>
+      </c>
+      <c r="J89" s="6">
+        <v>0.40969</v>
+      </c>
+      <c r="K89" s="6">
+        <v>6.6790000000000002E-2</v>
+      </c>
+      <c r="L89" s="6">
+        <v>-7.3469999999999994E-2</v>
+      </c>
+      <c r="M89" s="6">
+        <v>-1.269E-2</v>
+      </c>
+      <c r="N89" s="6">
+        <v>-1.6E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A90" s="185"/>
+      <c r="B90" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F90">
+        <v>4022</v>
+      </c>
+      <c r="J90" s="186">
+        <v>0.36325000000000002</v>
+      </c>
+      <c r="M90" s="186">
+        <v>-2.231E-2</v>
+      </c>
+      <c r="N90" s="186">
+        <v>-2.342E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A91" s="185"/>
+      <c r="B91" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C91" s="94">
+        <v>43102</v>
+      </c>
+      <c r="D91" s="94">
+        <v>43343</v>
+      </c>
+      <c r="E91" s="95">
+        <v>164</v>
+      </c>
+      <c r="F91" s="95">
+        <v>927</v>
+      </c>
+      <c r="G91" s="95">
+        <v>5</v>
+      </c>
+      <c r="H91" s="95">
+        <v>289</v>
+      </c>
+      <c r="I91" s="95">
+        <v>638</v>
+      </c>
+      <c r="J91" s="96">
+        <v>0.31175999999999998</v>
+      </c>
+      <c r="K91" s="96">
+        <v>7.3319999999999996E-2</v>
+      </c>
+      <c r="L91" s="96">
+        <v>-8.7709999999999996E-2</v>
+      </c>
+      <c r="M91" s="96">
+        <v>-3.116E-2</v>
+      </c>
+      <c r="N91" s="96">
+        <v>-3.7510000000000002E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C92" s="4">
+        <v>43102</v>
+      </c>
+      <c r="D92" s="4">
+        <v>43343</v>
+      </c>
+      <c r="E92" s="5">
+        <v>164</v>
+      </c>
+      <c r="F92" s="5">
+        <v>920</v>
+      </c>
+      <c r="G92" s="5">
+        <v>5</v>
+      </c>
+      <c r="H92" s="5">
+        <v>195</v>
+      </c>
+      <c r="I92" s="5">
+        <v>725</v>
+      </c>
+      <c r="J92" s="6">
+        <v>0.21196000000000001</v>
+      </c>
+      <c r="K92" s="6">
+        <v>5.2749999999999998E-2</v>
+      </c>
+      <c r="L92" s="6">
+        <v>-3.5279999999999999E-2</v>
+      </c>
+      <c r="M92" s="6">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="N92" s="6">
+        <v>-1.6619999999999999E-2</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="B2:N21">
     <sortCondition descending="1" ref="N2:N21"/>
   </sortState>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A89:A91"/>
     <mergeCell ref="A83:A85"/>
     <mergeCell ref="A76:A81"/>
     <mergeCell ref="A2:A21"/>

--- a/策略研究/☆不同买入信号回测比较.xlsx
+++ b/策略研究/☆不同买入信号回测比较.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="93">
   <si>
     <t>开始日期</t>
   </si>
@@ -2595,6 +2595,86 @@
     </rPh>
     <rPh sb="21" eb="22">
       <t>tian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年1月至8月，全量，2日止损</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年1月至8月，全量，1日止损</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一板，且最低价低于5日线</t>
+    <rPh sb="0" eb="1">
+      <t>yi'ban</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zui'di'jia</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>di'yu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一板，且最高价低于5日线</t>
+    <rPh sb="0" eb="1">
+      <t>yi'ban</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zui'di'jia</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>di'yu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一板，且近5日内有跌停</t>
+    <rPh sb="0" eb="1">
+      <t>yi'ban</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>nei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>you</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>die't</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3740,6 +3820,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3764,10 +3848,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4057,16 +4137,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O92"/>
+  <dimension ref="A1:O97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="108.83203125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="56.5" style="18" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" style="12" customWidth="1"/>
     <col min="4" max="4" width="13" style="12" customWidth="1"/>
     <col min="5" max="7" width="10.83203125" style="12"/>
@@ -4121,8 +4201,8 @@
       </c>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="179" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="181" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -4166,7 +4246,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="179"/>
+      <c r="A3" s="181"/>
       <c r="B3" s="24" t="s">
         <v>30</v>
       </c>
@@ -4207,8 +4287,8 @@
         <v>5.1500000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="179"/>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="181"/>
       <c r="B4" s="24" t="s">
         <v>29</v>
       </c>
@@ -4250,7 +4330,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="179"/>
+      <c r="A5" s="181"/>
       <c r="B5" s="24" t="s">
         <v>32</v>
       </c>
@@ -4292,7 +4372,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="179"/>
+      <c r="A6" s="181"/>
       <c r="B6" s="24" t="s">
         <v>17</v>
       </c>
@@ -4334,7 +4414,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
+      <c r="A7" s="181"/>
       <c r="B7" s="24" t="s">
         <v>22</v>
       </c>
@@ -4376,7 +4456,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="179"/>
+      <c r="A8" s="181"/>
       <c r="B8" s="24" t="s">
         <v>21</v>
       </c>
@@ -4418,7 +4498,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="179"/>
+      <c r="A9" s="181"/>
       <c r="B9" s="24" t="s">
         <v>25</v>
       </c>
@@ -4460,7 +4540,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="179"/>
+      <c r="A10" s="181"/>
       <c r="B10" s="24" t="s">
         <v>12</v>
       </c>
@@ -4501,8 +4581,8 @@
         <v>-8.0000000000000007E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="179"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="181"/>
       <c r="B11" s="24" t="s">
         <v>15</v>
       </c>
@@ -4544,7 +4624,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="179"/>
+      <c r="A12" s="181"/>
       <c r="B12" s="24" t="s">
         <v>24</v>
       </c>
@@ -4586,7 +4666,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="179"/>
+      <c r="A13" s="181"/>
       <c r="B13" s="24" t="s">
         <v>19</v>
       </c>
@@ -4627,8 +4707,8 @@
         <v>-1.73E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="179"/>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="181"/>
       <c r="B14" s="24" t="s">
         <v>18</v>
       </c>
@@ -4669,8 +4749,8 @@
         <v>-1.81E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="179"/>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="181"/>
       <c r="B15" s="24" t="s">
         <v>26</v>
       </c>
@@ -4711,8 +4791,8 @@
         <v>-1.91E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="179"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="181"/>
       <c r="B16" s="24" t="s">
         <v>16</v>
       </c>
@@ -4754,7 +4834,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="179"/>
+      <c r="A17" s="181"/>
       <c r="B17" s="24" t="s">
         <v>23</v>
       </c>
@@ -4796,7 +4876,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="179"/>
+      <c r="A18" s="181"/>
       <c r="B18" s="24" t="s">
         <v>14</v>
       </c>
@@ -4837,8 +4917,8 @@
         <v>-4.8399999999999997E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A19" s="179"/>
+    <row r="19" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="181"/>
       <c r="B19" s="24" t="s">
         <v>28</v>
       </c>
@@ -4880,8 +4960,8 @@
       </c>
       <c r="O19" s="33"/>
     </row>
-    <row r="20" spans="1:15" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A20" s="179"/>
+    <row r="20" spans="1:15" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="181"/>
       <c r="B20" s="24" t="s">
         <v>20</v>
       </c>
@@ -4924,7 +5004,7 @@
       <c r="O20" s="34"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="179"/>
+      <c r="A21" s="181"/>
       <c r="B21" s="24" t="s">
         <v>27</v>
       </c>
@@ -4981,7 +5061,7 @@
       <c r="N22" s="38"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="179" t="s">
+      <c r="A23" s="181" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="39" t="s">
@@ -5025,7 +5105,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="179"/>
+      <c r="A24" s="181"/>
       <c r="B24" s="24" t="s">
         <v>31</v>
       </c>
@@ -5066,8 +5146,8 @@
         <v>-3.8E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="179"/>
+    <row r="25" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="181"/>
       <c r="B25" s="24" t="s">
         <v>13</v>
       </c>
@@ -5109,7 +5189,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="179"/>
+      <c r="A26" s="181"/>
       <c r="B26" s="24" t="s">
         <v>32</v>
       </c>
@@ -5168,7 +5248,7 @@
       <c r="O28" s="49"/>
     </row>
     <row r="29" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="179" t="s">
+      <c r="A29" s="181" t="s">
         <v>34</v>
       </c>
       <c r="B29" s="52" t="s">
@@ -5212,7 +5292,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="179"/>
+      <c r="A30" s="181"/>
       <c r="B30" s="56" t="s">
         <v>32</v>
       </c>
@@ -5254,7 +5334,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="179"/>
+      <c r="A31" s="181"/>
       <c r="B31" s="60" t="s">
         <v>31</v>
       </c>
@@ -5295,8 +5375,8 @@
         <v>-3.8E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A32" s="179"/>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="181"/>
       <c r="B32" s="56" t="s">
         <v>35</v>
       </c>
@@ -5337,14 +5417,14 @@
         <v>-8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A33" s="179"/>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="181"/>
       <c r="B33" s="68" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="180" t="s">
+      <c r="A35" s="182" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="70" t="s">
@@ -5388,7 +5468,7 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="180"/>
+      <c r="A36" s="182"/>
       <c r="B36" s="56" t="s">
         <v>32</v>
       </c>
@@ -5430,7 +5510,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="180"/>
+      <c r="A37" s="182"/>
       <c r="B37" s="72" t="s">
         <v>31</v>
       </c>
@@ -5471,8 +5551,8 @@
         <v>1.23E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A38" s="180"/>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="182"/>
       <c r="B38" s="56" t="s">
         <v>35</v>
       </c>
@@ -5554,7 +5634,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B40" s="56" t="s">
         <v>43</v>
       </c>
@@ -5737,7 +5817,7 @@
       <c r="O48" s="89"/>
     </row>
     <row r="49" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="184" t="s">
+      <c r="A49" s="186" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="18" t="s">
@@ -5781,13 +5861,13 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A50" s="184"/>
+      <c r="A50" s="186"/>
       <c r="B50" s="18" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="100" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="183" t="s">
+      <c r="A52" s="185" t="s">
         <v>47</v>
       </c>
       <c r="B52" s="105" t="s">
@@ -5832,7 +5912,7 @@
       <c r="O52" s="99"/>
     </row>
     <row r="53" spans="1:15" s="98" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="183"/>
+      <c r="A53" s="185"/>
       <c r="B53" s="105" t="s">
         <v>45</v>
       </c>
@@ -5875,7 +5955,7 @@
       <c r="O53" s="97"/>
     </row>
     <row r="54" spans="1:15" s="98" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="183"/>
+      <c r="A54" s="185"/>
       <c r="B54" s="105" t="s">
         <v>46</v>
       </c>
@@ -5918,7 +5998,7 @@
       <c r="O54" s="97"/>
     </row>
     <row r="55" spans="1:15" s="102" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="183"/>
+      <c r="A55" s="185"/>
       <c r="B55" s="110" t="s">
         <v>48</v>
       </c>
@@ -5963,7 +6043,7 @@
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A56" s="182" t="s">
+      <c r="A56" s="184" t="s">
         <v>57</v>
       </c>
       <c r="B56" s="110" t="s">
@@ -6007,7 +6087,7 @@
       </c>
     </row>
     <row r="57" spans="1:15" s="11" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="179"/>
+      <c r="A57" s="181"/>
       <c r="B57" s="132" t="s">
         <v>54</v>
       </c>
@@ -6050,7 +6130,7 @@
       <c r="O57" s="89"/>
     </row>
     <row r="58" spans="1:15" s="123" customFormat="1" ht="50" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="179"/>
+      <c r="A58" s="181"/>
       <c r="B58" s="128" t="s">
         <v>55</v>
       </c>
@@ -6093,7 +6173,7 @@
       <c r="O58" s="116"/>
     </row>
     <row r="59" spans="1:15" s="2" customFormat="1" ht="50" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="179"/>
+      <c r="A59" s="181"/>
       <c r="B59" s="137" t="s">
         <v>59</v>
       </c>
@@ -6136,7 +6216,7 @@
       <c r="O59" s="33"/>
     </row>
     <row r="60" spans="1:15" s="2" customFormat="1" ht="66" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="179"/>
+      <c r="A60" s="181"/>
       <c r="B60" s="128" t="s">
         <v>60</v>
       </c>
@@ -6179,7 +6259,7 @@
       <c r="O60" s="33"/>
     </row>
     <row r="61" spans="1:15" ht="66" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="179"/>
+      <c r="A61" s="181"/>
       <c r="B61" s="128" t="s">
         <v>61</v>
       </c>
@@ -6221,7 +6301,7 @@
       </c>
     </row>
     <row r="62" spans="1:15" ht="66" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="179"/>
+      <c r="A62" s="181"/>
       <c r="B62" s="126" t="s">
         <v>62</v>
       </c>
@@ -6263,7 +6343,7 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="66" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="179"/>
+      <c r="A63" s="181"/>
       <c r="B63" s="126" t="s">
         <v>63</v>
       </c>
@@ -6305,7 +6385,7 @@
       </c>
     </row>
     <row r="64" spans="1:15" ht="66" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="179"/>
+      <c r="A64" s="181"/>
       <c r="B64" s="126" t="s">
         <v>66</v>
       </c>
@@ -6347,7 +6427,7 @@
       </c>
     </row>
     <row r="65" spans="1:15" ht="82" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="179"/>
+      <c r="A65" s="181"/>
       <c r="B65" s="128" t="s">
         <v>64</v>
       </c>
@@ -6389,7 +6469,7 @@
       </c>
     </row>
     <row r="66" spans="1:15" ht="98" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="179"/>
+      <c r="A66" s="181"/>
       <c r="B66" s="117" t="s">
         <v>65</v>
       </c>
@@ -6483,7 +6563,7 @@
       <c r="N69" s="104"/>
     </row>
     <row r="70" spans="1:15" s="161" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="177" t="s">
+      <c r="A70" s="179" t="s">
         <v>56</v>
       </c>
       <c r="B70" s="156" t="s">
@@ -6528,7 +6608,7 @@
       <c r="O70" s="156"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A71" s="178"/>
+      <c r="A71" s="180"/>
       <c r="B71" s="18" t="s">
         <v>58</v>
       </c>
@@ -6570,7 +6650,7 @@
       </c>
     </row>
     <row r="72" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="181"/>
+      <c r="A72" s="183"/>
       <c r="B72" s="33" t="s">
         <v>58</v>
       </c>
@@ -6647,7 +6727,7 @@
       <c r="O74" s="125"/>
     </row>
     <row r="76" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="177" t="s">
+      <c r="A76" s="179" t="s">
         <v>67</v>
       </c>
       <c r="B76" s="176" t="s">
@@ -6691,7 +6771,7 @@
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A77" s="178"/>
+      <c r="A77" s="180"/>
       <c r="B77" s="18" t="s">
         <v>68</v>
       </c>
@@ -6733,7 +6813,7 @@
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A78" s="178"/>
+      <c r="A78" s="180"/>
       <c r="B78" s="18" t="s">
         <v>70</v>
       </c>
@@ -6775,7 +6855,7 @@
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A79" s="178"/>
+      <c r="A79" s="180"/>
       <c r="B79" s="18" t="s">
         <v>69</v>
       </c>
@@ -6817,7 +6897,7 @@
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A80" s="178"/>
+      <c r="A80" s="180"/>
       <c r="B80" s="18" t="s">
         <v>71</v>
       </c>
@@ -6859,7 +6939,7 @@
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A81" s="178"/>
+      <c r="A81" s="180"/>
       <c r="B81" s="18" t="s">
         <v>72</v>
       </c>
@@ -6944,8 +7024,8 @@
         <v>2.376E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="304" x14ac:dyDescent="0.2">
-      <c r="A83" s="177" t="s">
+    <row r="83" spans="1:15" ht="256" x14ac:dyDescent="0.2">
+      <c r="A83" s="179" t="s">
         <v>75</v>
       </c>
       <c r="B83" s="3" t="s">
@@ -6992,7 +7072,7 @@
       </c>
     </row>
     <row r="84" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A84" s="178"/>
+      <c r="A84" s="180"/>
       <c r="B84" s="174" t="s">
         <v>78</v>
       </c>
@@ -7033,8 +7113,8 @@
         <v>1.2959999999999999E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="64" x14ac:dyDescent="0.2">
-      <c r="A85" s="178"/>
+    <row r="85" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+      <c r="A85" s="180"/>
       <c r="B85" s="174" t="s">
         <v>79</v>
       </c>
@@ -7120,7 +7200,7 @@
       </c>
     </row>
     <row r="87" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="185" t="s">
+      <c r="A87" s="178" t="s">
         <v>82</v>
       </c>
       <c r="B87" s="18" t="s">
@@ -7163,8 +7243,8 @@
         <v>-5.4400000000000004E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A88" s="185"/>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A88" s="178"/>
       <c r="B88" s="18" t="s">
         <v>84</v>
       </c>
@@ -7206,7 +7286,7 @@
       </c>
     </row>
     <row r="89" spans="1:15" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="185" t="s">
+      <c r="A89" s="178" t="s">
         <v>86</v>
       </c>
       <c r="B89" s="18" t="s">
@@ -7250,25 +7330,25 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A90" s="185"/>
+      <c r="A90" s="178"/>
       <c r="B90" s="18" t="s">
         <v>85</v>
       </c>
       <c r="F90">
         <v>4022</v>
       </c>
-      <c r="J90" s="186">
+      <c r="J90" s="177">
         <v>0.36325000000000002</v>
       </c>
-      <c r="M90" s="186">
+      <c r="M90" s="177">
         <v>-2.231E-2</v>
       </c>
-      <c r="N90" s="186">
+      <c r="N90" s="177">
         <v>-2.342E-2</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A91" s="185"/>
+      <c r="A91" s="178"/>
       <c r="B91" s="18" t="s">
         <v>87</v>
       </c>
@@ -7311,7 +7391,7 @@
     </row>
     <row r="92" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="18" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B92" s="18" t="s">
         <v>87</v>
@@ -7351,6 +7431,173 @@
       </c>
       <c r="N92" s="6">
         <v>-1.6619999999999999E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+      <c r="A94" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C94" s="94">
+        <v>43102</v>
+      </c>
+      <c r="D94" s="94">
+        <v>43343</v>
+      </c>
+      <c r="E94" s="95">
+        <v>164</v>
+      </c>
+      <c r="F94" s="95">
+        <v>4595</v>
+      </c>
+      <c r="G94" s="95">
+        <v>28</v>
+      </c>
+      <c r="H94" s="95">
+        <v>1045</v>
+      </c>
+      <c r="I94" s="95">
+        <v>3550</v>
+      </c>
+      <c r="J94" s="96">
+        <v>0.22742000000000001</v>
+      </c>
+      <c r="K94" s="96">
+        <v>6.5339999999999995E-2</v>
+      </c>
+      <c r="L94" s="96">
+        <v>-3.4569999999999997E-2</v>
+      </c>
+      <c r="M94" s="96">
+        <v>-1.018E-2</v>
+      </c>
+      <c r="N94" s="96">
+        <v>-1.1849999999999999E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B95" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C95" s="94">
+        <v>43102</v>
+      </c>
+      <c r="D95" s="94">
+        <v>43343</v>
+      </c>
+      <c r="E95" s="95">
+        <v>164</v>
+      </c>
+      <c r="F95" s="95">
+        <v>3419</v>
+      </c>
+      <c r="G95" s="95">
+        <v>20</v>
+      </c>
+      <c r="H95" s="95">
+        <v>782</v>
+      </c>
+      <c r="I95" s="95">
+        <v>2637</v>
+      </c>
+      <c r="J95" s="96">
+        <v>0.22872000000000001</v>
+      </c>
+      <c r="K95" s="96">
+        <v>6.3769999999999993E-2</v>
+      </c>
+      <c r="L95" s="96">
+        <v>-3.2739999999999998E-2</v>
+      </c>
+      <c r="M95" s="96">
+        <v>-7.8700000000000003E-3</v>
+      </c>
+      <c r="N95" s="96">
+        <v>-1.0659999999999999E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B96" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C96" s="94">
+        <v>43102</v>
+      </c>
+      <c r="D96" s="94">
+        <v>43343</v>
+      </c>
+      <c r="E96" s="95">
+        <v>164</v>
+      </c>
+      <c r="F96" s="95">
+        <v>71</v>
+      </c>
+      <c r="G96" s="95">
+        <v>0</v>
+      </c>
+      <c r="H96" s="95">
+        <v>26</v>
+      </c>
+      <c r="I96" s="95">
+        <v>45</v>
+      </c>
+      <c r="J96" s="96">
+        <v>0.36620000000000003</v>
+      </c>
+      <c r="K96" s="96">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="L96" s="96">
+        <v>-3.3520000000000001E-2</v>
+      </c>
+      <c r="M96" s="168">
+        <v>4.3800000000000002E-3</v>
+      </c>
+      <c r="N96" s="168">
+        <v>3.1489999999999997E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B97" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C97" s="94">
+        <v>43102</v>
+      </c>
+      <c r="D97" s="94">
+        <v>43343</v>
+      </c>
+      <c r="E97" s="95">
+        <v>164</v>
+      </c>
+      <c r="F97" s="95">
+        <v>340</v>
+      </c>
+      <c r="G97" s="95">
+        <v>2</v>
+      </c>
+      <c r="H97" s="95">
+        <v>111</v>
+      </c>
+      <c r="I97" s="95">
+        <v>229</v>
+      </c>
+      <c r="J97" s="96">
+        <v>0.32646999999999998</v>
+      </c>
+      <c r="K97" s="96">
+        <v>7.9939999999999997E-2</v>
+      </c>
+      <c r="L97" s="96">
+        <v>-3.3169999999999998E-2</v>
+      </c>
+      <c r="M97" s="96">
+        <v>-2.0300000000000001E-3</v>
+      </c>
+      <c r="N97" s="168">
+        <v>3.7599999999999999E-3</v>
       </c>
     </row>
   </sheetData>
